--- a/TabelaTokens.xlsx
+++ b/TabelaTokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joser\Documents\Desktop\EngComp\Compiladores\Trabalho01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F880DE-6B80-4886-9D0C-21EECA4D21E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A72F583-3DD6-4FB5-AC91-8760E00EFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1CC7BDD-3916-4CB0-B987-B68C586F18AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1CC7BDD-3916-4CB0-B987-B68C586F18AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Tokens" sheetId="2" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -478,7 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D3E8E2-793D-4EA7-8D7E-12C150C9C79A}">
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1366,12 +1365,6 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
-      <c r="F23" s="4"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="F26" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
